--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_14_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11978.50089051378</v>
+        <v>2383721.677212243</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11978.50089051378</v>
+        <v>2383721.677212243</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39574.09177473661</v>
+        <v>2413723.235582178</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>39574.09177473661</v>
+        <v>2413723.235582178</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419424667.144859</v>
+        <v>56715110.01926278</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13471.0492399309</v>
+        <v>1386998.126824073</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25646.91899429119</v>
+        <v>2551921.889131723</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37822.78874865146</v>
+        <v>3716845.651439374</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>51290.35276955865</v>
+        <v>4811779.195766883</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64757.91679046579</v>
+        <v>5906712.740094393</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78225.48081137294</v>
+        <v>7001646.284421898</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91693.04483228008</v>
+        <v>8096579.828749402</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105160.6088531873</v>
+        <v>9191513.373076905</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>118465.1291851083</v>
+        <v>10256233.6334847</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>131777.533141025</v>
+        <v>11352083.10179213</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>145077.7415413861</v>
+        <v>12445505.65454401</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>158377.9308486588</v>
+        <v>13538928.2072959</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>171678.13924902</v>
+        <v>14632350.76004778</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>185055.5755580319</v>
+        <v>15717464.80742157</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>198552.5976457976</v>
+        <v>16789284.53772335</v>
       </c>
     </row>
   </sheetData>
